--- a/biology/Médecine/Sympathicomimétique/Sympathicomimétique.xlsx
+++ b/biology/Médecine/Sympathicomimétique/Sympathicomimétique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sympathicomim%C3%A9tique</t>
+          <t>Sympathicomimétique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les sympathicomimétiques (ou sympathomimétiques) sont une classe de médicaments dont les propriétés imitent la stimulation du système nerveux sympathique. Dès lors, ils accélèrent la fréquence cardiaque, dilatent les bronchioles, et provoquent en général une contraction des vaisseaux sanguins (vasoconstriction).
 Les sympathicomimétiques comprennent des substances naturelles telles l'adrénaline (ou épinéphrine, épirénamine, levorénine ou suprarénine), la noradrénaline et d'autres catécholamines comme la dopamine, ou tirées de plantes comme l'éphédrine, issue de l'éphédra, ou de synthèse, comme la pseudoéphédrine, la phényléphrine et la phénylpropanolamine. Ils comprennent également des psychotropes, naturels ou synthétiques comme la cathinone et l'amphétamine, alors utilisés pour leurs propriétés stimulantes. 
@@ -500,7 +512,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Sympathicomim%C3%A9tique</t>
+          <t>Sympathicomimétique</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -519,6 +531,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Sympathicomim%C3%A9tique</t>
+          <t>Sympathicomimétique</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,14 +560,16 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Bêta2-mimétiques à courte durée d'action
-Fénotérol (Berotec)
+          <t>Bêta2-mimétiques à courte durée d'action</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Fénotérol (Berotec)
 Salbutamol (Ventoline, Airomir)
 Terbutaline (Bricanyl)
-Tulobutérol (Respacal)
-Bêta2-mimétiques à longue durée d'action
-Formotérol (Foradil, Oxis)
-Salmétérol (Serevent)</t>
+Tulobutérol (Respacal)</t>
         </is>
       </c>
     </row>
@@ -563,7 +579,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Sympathicomim%C3%A9tique</t>
+          <t>Sympathicomimétique</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,13 +594,19 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Utilisation chez le sportif</t>
+          <t>Principaux sympathicomimétiques utilisés en cas de BPCO</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Les sympathicomimétiques sont considérés comme produits dopants.
-</t>
+          <t>Bêta2-mimétiques à longue durée d'action</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Formotérol (Foradil, Oxis)
+Salmétérol (Serevent)</t>
         </is>
       </c>
     </row>
@@ -594,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Sympathicomim%C3%A9tique</t>
+          <t>Sympathicomimétique</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -609,13 +631,51 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Utilisation chez le sportif</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les sympathicomimétiques sont considérés comme produits dopants.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Sympathicomimétique</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sympathicomim%C3%A9tique</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Sympathicomimétiques d'action centrale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Psychostimulants
-Amphétamine
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Psychostimulants</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Amphétamine
 Méthamphétamine
 MDMA
 Méthylphénidate (Ritaline, Concerta)
